--- a/Project/Metingen/vergelijking MEMS.xlsx
+++ b/Project/Metingen/vergelijking MEMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willem\Documents\Thomas_More\21-22\Bachelorproef\Bachelorproef 2022 MEMS Pro Audio\Bachelorproef-2022\Project\Metingen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70C2D25-E34E-4776-A387-6A4CB094E3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4057A53-AEFF-43F4-AD20-6C9DC90C13D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{2E7B96A1-E215-4DEB-A79A-B2B7FD7762BC}"/>
+    <workbookView xWindow="16110" yWindow="5160" windowWidth="28800" windowHeight="15630" xr2:uid="{2E7B96A1-E215-4DEB-A79A-B2B7FD7762BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Producent</t>
   </si>
@@ -49,15 +49,6 @@
     <t>CMM-4030DB-26354-TR</t>
   </si>
   <si>
-    <t>sensitivity</t>
-  </si>
-  <si>
-    <t>Low F</t>
-  </si>
-  <si>
-    <t>Top F</t>
-  </si>
-  <si>
     <t>SNR</t>
   </si>
   <si>
@@ -73,15 +64,9 @@
     <t>120 dB SPL</t>
   </si>
   <si>
-    <t>PSR</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -90 dBFS</t>
   </si>
   <si>
-    <t>MIC placement</t>
-  </si>
-  <si>
     <t>Bottom</t>
   </si>
   <si>
@@ -121,43 +106,28 @@
     <t>130 dB SPL</t>
   </si>
   <si>
-    <t>69 dBA*</t>
-  </si>
-  <si>
     <t>*afhankelijk van CLKsnelheid</t>
   </si>
   <si>
     <t xml:space="preserve"> -86 dBFS</t>
   </si>
   <si>
-    <t>n.a.</t>
-  </si>
-  <si>
-    <t>TDK</t>
-  </si>
-  <si>
-    <t>T3903</t>
-  </si>
-  <si>
-    <t>66 dBA</t>
-  </si>
-  <si>
-    <t>133 dB SPL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -37 dBFS +/- 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -105 dBFS</t>
-  </si>
-  <si>
     <t>Aanwezig</t>
   </si>
   <si>
     <t>V</t>
   </si>
   <si>
-    <t>X</t>
+    <t>69 dBA</t>
+  </si>
+  <si>
+    <t>PSRR</t>
+  </si>
+  <si>
+    <t>sensitiviteit</t>
+  </si>
+  <si>
+    <t>MIC plaatsing</t>
   </si>
 </sst>
 </file>
@@ -207,10 +177,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -526,25 +495,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1E45B1-2C27-4F85-81F8-5450CBB3C914}">
-  <dimension ref="C4:U9"/>
+  <dimension ref="C4:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D4" sqref="D4:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="11" width="12.21875" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="9" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
@@ -553,10 +522,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>6</v>
@@ -565,29 +534,23 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -596,166 +559,116 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
       </c>
       <c r="H5" s="2">
-        <v>10000</v>
+        <v>2E-3</v>
       </c>
       <c r="I5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="3">
-        <v>2E-3</v>
+      <c r="J5" t="s">
+        <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
       </c>
       <c r="H6" s="2">
-        <v>10000</v>
+        <v>2E-3</v>
       </c>
       <c r="I6" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="3">
-        <v>2E-3</v>
+      <c r="J6" t="s">
+        <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="M6" t="s">
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I7" t="s">
         <v>17</v>
       </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="G7">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K7" t="s">
+      <c r="I8" t="s">
         <v>22</v>
       </c>
-      <c r="L7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" t="s">
-        <v>15</v>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="K9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" t="s">
-        <v>15</v>
-      </c>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="H9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
